--- a/gilded exercise docs/item queso.xlsx
+++ b/gilded exercise docs/item queso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L41561691R\curso\gilded exercise docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L41561691R\curso\vs code\git\testing_qa_logirail\gilded exercise docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C157DCA8-5843-48F7-810B-89DEEA20D80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D12F7AA-D312-4908-BE8E-75C615E389F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27C4DA2E-7A79-4F18-8CF1-F5DC6163C884}"/>
   </bookViews>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E87F64E-C2EB-40A1-9E45-8962EC568237}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -930,7 +930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -962,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>26</v>
@@ -980,19 +980,20 @@
         <v>40</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
@@ -1022,7 +1023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
